--- a/colbert/output/Results_colbert_avg_steps_extraQuestions.xlsx
+++ b/colbert/output/Results_colbert_avg_steps_extraQuestions.xlsx
@@ -5027,11 +5027,11 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>87098</v>
+        <v>44045</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>homemade  vegetable soup from a can</t>
+          <t>mennonite  corn fritters</t>
         </is>
       </c>
     </row>
@@ -5052,11 +5052,11 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>44045</v>
+        <v>87098</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>mennonite  corn fritters</t>
+          <t>homemade  vegetable soup from a can</t>
         </is>
       </c>
     </row>
@@ -5077,11 +5077,11 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>39959</v>
+        <v>112140</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>calm your nerves  tonic</t>
+          <t>all in the kitchen  chili</t>
         </is>
       </c>
     </row>
@@ -5527,11 +5527,11 @@
         </is>
       </c>
       <c r="D204" t="n">
-        <v>25274</v>
+        <v>23933</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>aww  marinated olives</t>
+          <t>chinese  candy</t>
         </is>
       </c>
     </row>
@@ -6002,11 +6002,11 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>58224</v>
+        <v>112140</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>immoral  sandwich filling  loose meat</t>
+          <t>all in the kitchen  chili</t>
         </is>
       </c>
     </row>
@@ -6077,11 +6077,11 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>33606</v>
+        <v>58224</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>italian sandwich  pasta salad</t>
+          <t>immoral  sandwich filling  loose meat</t>
         </is>
       </c>
     </row>
@@ -11552,11 +11552,11 @@
         </is>
       </c>
       <c r="D445" t="n">
-        <v>25274</v>
+        <v>30131</v>
       </c>
       <c r="E445" t="inlineStr">
         <is>
-          <t>aww  marinated olives</t>
+          <t>momma s special  marinade</t>
         </is>
       </c>
     </row>
@@ -11577,11 +11577,11 @@
         </is>
       </c>
       <c r="D446" t="n">
-        <v>30131</v>
+        <v>93249</v>
       </c>
       <c r="E446" t="inlineStr">
         <is>
-          <t>momma s special  marinade</t>
+          <t>grilled  ranch bread</t>
         </is>
       </c>
     </row>
@@ -17252,11 +17252,11 @@
         </is>
       </c>
       <c r="D673" t="n">
-        <v>38798</v>
+        <v>52804</v>
       </c>
       <c r="E673" t="inlineStr">
         <is>
-          <t>i can t believe it s spinach</t>
+          <t>jiffy  extra moist carrot cake</t>
         </is>
       </c>
     </row>
@@ -17277,11 +17277,11 @@
         </is>
       </c>
       <c r="D674" t="n">
-        <v>52804</v>
+        <v>26995</v>
       </c>
       <c r="E674" t="inlineStr">
         <is>
-          <t>jiffy  extra moist carrot cake</t>
+          <t>keep it going  german friendship cake</t>
         </is>
       </c>
     </row>
@@ -17327,11 +17327,11 @@
         </is>
       </c>
       <c r="D676" t="n">
-        <v>26995</v>
+        <v>27087</v>
       </c>
       <c r="E676" t="inlineStr">
         <is>
-          <t>keep it going  german friendship cake</t>
+          <t>get the sensation  brownies</t>
         </is>
       </c>
     </row>
